--- a/political compass map/codebook.xlsx
+++ b/political compass map/codebook.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\svillatoro\Desktop\Better Data Science\political compass map\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{243C8561-5A8D-485E-AABA-CB76B6B7F3A1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E9EDF5D-EDE8-4374-AF64-5B1790F7558B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{18248BBD-36CD-488F-85AF-2AD52DC61EB0}"/>
+    <workbookView xWindow="28680" yWindow="90" windowWidth="16440" windowHeight="28440" xr2:uid="{18248BBD-36CD-488F-85AF-2AD52DC61EB0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -617,8 +617,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F906A61E-B272-4E8A-AE61-AD7958D3CF79}">
   <dimension ref="A1:D70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="F63" sqref="F63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -653,7 +653,7 @@
         <v>68</v>
       </c>
       <c r="D2" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
